--- a/9/4/Indice general de remuneraciones y costo de la mano de obra 1977 a 2021 - Mensual.xlsx
+++ b/9/4/Indice general de remuneraciones y costo de la mano de obra 1977 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="535">
   <si>
     <t>Serie</t>
   </si>
@@ -1616,6 +1616,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1973,7 +1976,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C532"/>
+  <dimension ref="A1:C533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7213,10 +7216,21 @@
         <v>533</v>
       </c>
       <c r="B532">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C532">
-        <v>6.3</v>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" t="s">
+        <v>534</v>
+      </c>
+      <c r="B533">
+        <v>6.5</v>
+      </c>
+      <c r="C533">
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>

--- a/9/4/Indice general de remuneraciones y costo de la mano de obra 1977 a 2021 - Mensual.xlsx
+++ b/9/4/Indice general de remuneraciones y costo de la mano de obra 1977 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
   <si>
     <t>Serie</t>
   </si>
@@ -1619,6 +1619,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1979,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C533"/>
+  <dimension ref="A1:C534"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7227,10 +7230,21 @@
         <v>534</v>
       </c>
       <c r="B533">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C533">
-        <v>6.6</v>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" t="s">
+        <v>535</v>
+      </c>
+      <c r="B534">
+        <v>6.4</v>
+      </c>
+      <c r="C534">
+        <v>6.7</v>
       </c>
     </row>
   </sheetData>

--- a/9/4/Indice general de remuneraciones y costo de la mano de obra 1977 a 2021 - Mensual.xlsx
+++ b/9/4/Indice general de remuneraciones y costo de la mano de obra 1977 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
   <si>
     <t>Serie</t>
   </si>
@@ -1622,6 +1622,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1979,7 +1982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C534"/>
+  <dimension ref="A1:C535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7247,6 +7250,17 @@
         <v>6.7</v>
       </c>
     </row>
+    <row r="535" spans="1:3">
+      <c r="A535" t="s">
+        <v>536</v>
+      </c>
+      <c r="B535">
+        <v>5.7</v>
+      </c>
+      <c r="C535">
+        <v>6.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
